--- a/file/common/Province.xlsx
+++ b/file/common/Province.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gzy\Documents\GitHub\order\file\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\PycharmProjects1\regionalenergy\file\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C628536-BFFF-42E0-9025-60E40933B0F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="province" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>北京市</t>
   </si>
@@ -346,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
@@ -454,8 +455,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -790,22 +791,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="22.4609375" customWidth="1"/>
+    <col min="5" max="5" width="12.3828125" customWidth="1"/>
+    <col min="6" max="6" width="11.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -825,7 +826,7 @@
         <v>116.4551</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -845,7 +846,7 @@
         <v>117.42189999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -865,7 +866,7 @@
         <v>115.4004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -885,7 +886,7 @@
         <v>112.4121</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -905,7 +906,7 @@
         <v>117.5977</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -925,7 +926,7 @@
         <v>122.3438</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -945,7 +946,7 @@
         <v>126.4746</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -965,7 +966,7 @@
         <v>128.14449999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -985,7 +986,7 @@
         <v>121.4648</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>120.0586</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>120.498</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>117.2461</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1065,7 +1066,7 @@
         <v>118.3008</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>116.01560000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>118.7402</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>113.46680000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>112.2363</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>111.53319999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1185,7 +1186,7 @@
         <v>113.46680000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>108.2813</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>109.9512</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>107.7539</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>102.9199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>106.6113</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>101.8652</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>88.76</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>109.5996</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>95.712900000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>96.240200000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>105.9961</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -1433,12 +1434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,12 +1447,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
